--- a/biology/Zoologie/Chioninia_spinalis/Chioninia_spinalis.xlsx
+++ b/biology/Zoologie/Chioninia_spinalis/Chioninia_spinalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chioninia spinalis est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chioninia spinalis est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des îles du Cap-Vert[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des îles du Cap-Vert.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (7 août 2012)[2], cinq sous-espèces sont reconnues :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (7 août 2012), cinq sous-espèces sont reconnues :
 Chioninia spinalis boavistensis Miralles, Vasconcelos, Perera, Harris &amp; Carranza, 2010 ;
 Chioninia spinalis maioensis (Mertens, 1955) ;
 Chioninia spinalis salensis (Angel, 1935) ;
@@ -577,7 +593,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Angel, 1935 : Lézards des Îles du Cap Vert, rapportés par M. le Professeur Chevalier. Description de espèces nouvelles. Bulletin du Muséum d’Histoire Naturelle de Paris, sér. 2, vol. 7, p. 165–169.
 Boulenger, 1906 : Report on the reptiles collected by the late L. Fea in West Africa. Annali di Museo Civico di Storia Naturale di Genova, sér. 3, vol. 2, p. 196-216.
